--- a/Relatorio do Grupo.xlsx
+++ b/Relatorio do Grupo.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Gonçalves\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoaoGoncalves\Desktop\Projetos\PSI_DA_PL1-A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12077854-20DD-46F9-8DBA-8D0559690909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9FAB26-CE34-4681-9DCE-B7369ABBC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gM3we6J0DihOXhhsVCVKEXQOkV9atHBEZEgMEOHliw2f+IhL1XhdH2iU/lWL6zpI42wRp6vwQ5IcaeTeZHIQSg==" workbookSaltValue="GQxFLs+f58FLaT3gnUsMQg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Projeto - DA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Elementos do Grupo:</t>
   </si>
@@ -164,9 +164,6 @@
     <t>F4</t>
   </si>
   <si>
-    <t>Selecione uma opção...</t>
-  </si>
-  <si>
     <t>Nota: Preencher todos os campos AZUIS até à linha com o texto "FIM"</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Instruções especificas para aceder à base de dados (caso necessário): Utilizar um cliente como Microsoft SQL Server Management e ligar-se ao servidor joaogoncalves.eu com o username "UserDA" e password: 2Wbmr4hmq48$9M@#8?HaYw*xMP8GcTh2P5+3br?_</t>
+  </si>
+  <si>
+    <t>Exportação TXT</t>
   </si>
 </sst>
 </file>
@@ -760,69 +760,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -850,48 +876,22 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:I50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1880,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="I4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1899,28 +1899,28 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="B7" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
@@ -1937,32 +1937,32 @@
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+      <c r="C11" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
@@ -1984,12 +1984,12 @@
       <c r="E15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
+      <c r="F15" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -2001,12 +2001,12 @@
       <c r="E16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="F16" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -2018,80 +2018,80 @@
       <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
+      <c r="F17" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="2:9" s="12" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="2:9" s="12" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="B23" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="2:9" s="12" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
@@ -2102,88 +2102,88 @@
       <c r="E24" s="20"/>
     </row>
     <row r="25" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+    </row>
+    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+    </row>
+    <row r="28" spans="2:9" s="12" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="29" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="2:9" s="12" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="B31" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="2:9" s="12" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
     <row r="33" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
@@ -2196,216 +2196,218 @@
       <c r="I34" s="23"/>
     </row>
     <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="2:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30" t="s">
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="39"/>
-      <c r="C40" s="32" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-    </row>
-    <row r="41" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="39"/>
-      <c r="C42" s="32" t="s">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
-    </row>
-    <row r="43" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="28" t="s">
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30" t="s">
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="29"/>
+      <c r="C46" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
+    </row>
+    <row r="47" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29"/>
+      <c r="C48" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="39"/>
-      <c r="C44" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-    </row>
-    <row r="45" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="39"/>
-      <c r="C46" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
-    </row>
-    <row r="48" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="39"/>
-      <c r="C48" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="50" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="39"/>
-      <c r="C50" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="35"/>
     </row>
     <row r="51" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
@@ -2418,128 +2420,128 @@
       <c r="I51" s="25"/>
     </row>
     <row r="53" spans="2:9" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+    </row>
+    <row r="54" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="2:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="39"/>
+    </row>
+    <row r="57" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="35"/>
+    </row>
+    <row r="58" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="39"/>
+    </row>
+    <row r="59" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29"/>
+      <c r="C59" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-    </row>
-    <row r="54" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-    </row>
-    <row r="55" spans="2:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-    </row>
-    <row r="56" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="39"/>
-      <c r="C57" s="32" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="39"/>
+    </row>
+    <row r="61" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="29"/>
+      <c r="C61" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="36"/>
-    </row>
-    <row r="58" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="39"/>
-      <c r="C59" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="36"/>
-    </row>
-    <row r="60" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="39"/>
-      <c r="C61" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="36"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="35"/>
     </row>
     <row r="62" spans="2:9" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="21"/>
@@ -2547,59 +2549,36 @@
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:9" s="14" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nAg814dniMN1+aTT6nVM18GwjUnvV9OUfP0rRXQYuIDGK7tvtz+H+MG25W7FV9heC+IheZGJF1DQiA+O4YQ3VQ==" saltValue="A0/kXYqsj6d9fZo7irUszA==" spinCount="100000" sheet="1" insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="71">
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="F46:I46"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="F49:I49"/>
@@ -2616,22 +2595,45 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C58:E58"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C39:E40">
